--- a/Data/swx1_time_raw.xlsx
+++ b/Data/swx1_time_raw.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilsonm/Dropbox (APSU GIS)/Projects (DB)/Dissertation/3DP_Experiments/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B55A423-0E19-6F4D-ACF9-1521751ECE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F4276A-5181-8A49-91B5-1A9206BD734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="swx1_time_raw" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -895,12 +895,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3982,5 +3996,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>